--- a/console/Networking/iaas网络与容器中文提取/vpcExcel/vpc_list.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcExcel/vpc_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2018年\12月\12月4日\VPC和子网国际化-by-JD\最终版\vpcExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -333,15 +333,15 @@
     </r>
   </si>
   <si>
-    <t>The VPC cannot be deleted. Please delete the subnet of the VPC first'</t>
+    <t>The VPC cannot be deleted. Please delete the Subnets of the VPC first'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,6 +354,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -382,9 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -724,15 +729,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="56.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -754,7 +762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -776,7 +784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -787,7 +795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -798,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -809,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -819,8 +827,9 @@
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -834,6 +843,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B9" numberStoredAsText="1"/>
   </ignoredErrors>
